--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H2">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I2">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J2">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="N2">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="O2">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="P2">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="Q2">
-        <v>111.8842459942864</v>
+        <v>123.6865818847434</v>
       </c>
       <c r="R2">
-        <v>111.8842459942864</v>
+        <v>1113.17923696269</v>
       </c>
       <c r="S2">
-        <v>0.09181558575802184</v>
+        <v>0.08670278204384492</v>
       </c>
       <c r="T2">
-        <v>0.09181558575802184</v>
+        <v>0.08670278204384493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H3">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I3">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J3">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="N3">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="O3">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="P3">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="Q3">
-        <v>271.3567912990757</v>
+        <v>279.1832861433734</v>
       </c>
       <c r="R3">
-        <v>271.3567912990757</v>
+        <v>2512.64957529036</v>
       </c>
       <c r="S3">
-        <v>0.2226835647961933</v>
+        <v>0.1957040710473306</v>
       </c>
       <c r="T3">
-        <v>0.2226835647961933</v>
+        <v>0.1957040710473307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H4">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I4">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J4">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="N4">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="O4">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="P4">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="Q4">
-        <v>18.62975109991323</v>
+        <v>20.96168349098667</v>
       </c>
       <c r="R4">
-        <v>18.62975109991323</v>
+        <v>188.65515141888</v>
       </c>
       <c r="S4">
-        <v>0.01528813547040425</v>
+        <v>0.01469388390637755</v>
       </c>
       <c r="T4">
-        <v>0.01528813547040425</v>
+        <v>0.01469388390637755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H5">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I5">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J5">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="N5">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="O5">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="P5">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="Q5">
-        <v>75.16475599058107</v>
+        <v>93.94582266088335</v>
       </c>
       <c r="R5">
-        <v>75.16475599058107</v>
+        <v>845.51240394795</v>
       </c>
       <c r="S5">
-        <v>0.0616824651076114</v>
+        <v>0.06585487335794021</v>
       </c>
       <c r="T5">
-        <v>0.0616824651076114</v>
+        <v>0.06585487335794023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H6">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I6">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J6">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="N6">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="O6">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="P6">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="Q6">
-        <v>149.4331640327794</v>
+        <v>166.1190396871813</v>
       </c>
       <c r="R6">
-        <v>149.4331640327794</v>
+        <v>1495.071357184632</v>
       </c>
       <c r="S6">
-        <v>0.1226293600624064</v>
+        <v>0.1164474162989793</v>
       </c>
       <c r="T6">
-        <v>0.1226293600624064</v>
+        <v>0.1164474162989794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H7">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I7">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J7">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="N7">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="O7">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="P7">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="Q7">
-        <v>362.4255009742319</v>
+        <v>374.9611209570454</v>
       </c>
       <c r="R7">
-        <v>362.4255009742319</v>
+        <v>3374.650088613408</v>
       </c>
       <c r="S7">
-        <v>0.2974172938278811</v>
+        <v>0.2628431625311539</v>
       </c>
       <c r="T7">
-        <v>0.2974172938278811</v>
+        <v>0.262843162531154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H8">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I8">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J8">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="N8">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="O8">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="P8">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="Q8">
-        <v>24.88198966050458</v>
+        <v>28.15288997956266</v>
       </c>
       <c r="R8">
-        <v>24.88198966050458</v>
+        <v>253.376009816064</v>
       </c>
       <c r="S8">
-        <v>0.02041891094856139</v>
+        <v>0.01973483175464366</v>
       </c>
       <c r="T8">
-        <v>0.02041891094856139</v>
+        <v>0.01973483175464367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H9">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I9">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J9">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="N9">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="O9">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="P9">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="Q9">
-        <v>100.3904277282963</v>
+        <v>126.1752859949733</v>
       </c>
       <c r="R9">
-        <v>100.3904277282963</v>
+        <v>1135.57757395476</v>
       </c>
       <c r="S9">
-        <v>0.08238341193131506</v>
+        <v>0.088447333204956</v>
       </c>
       <c r="T9">
-        <v>0.08238341193131506</v>
+        <v>0.08844733320495603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H10">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I10">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J10">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="N10">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="O10">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="P10">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="Q10">
-        <v>24.48818713769218</v>
+        <v>50.97043576357078</v>
       </c>
       <c r="R10">
-        <v>24.48818713769218</v>
+        <v>458.733921872137</v>
       </c>
       <c r="S10">
-        <v>0.02009574472454399</v>
+        <v>0.03572965244368024</v>
       </c>
       <c r="T10">
-        <v>0.02009574472454399</v>
+        <v>0.03572965244368024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H11">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I11">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J11">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="N11">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="O11">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="P11">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="Q11">
-        <v>59.39206031521888</v>
+        <v>115.0496160197365</v>
       </c>
       <c r="R11">
-        <v>59.39206031521888</v>
+        <v>1035.446544177628</v>
       </c>
       <c r="S11">
-        <v>0.0487389154635413</v>
+        <v>0.08064837454464155</v>
       </c>
       <c r="T11">
-        <v>0.0487389154635413</v>
+        <v>0.08064837454464156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H12">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I12">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J12">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="N12">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="O12">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="P12">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="Q12">
-        <v>4.077507313108219</v>
+        <v>8.63817340242489</v>
       </c>
       <c r="R12">
-        <v>4.077507313108219</v>
+        <v>77.743560621824</v>
       </c>
       <c r="S12">
-        <v>0.003346125444727645</v>
+        <v>0.006055253968173295</v>
       </c>
       <c r="T12">
-        <v>0.003346125444727645</v>
+        <v>0.006055253968173297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H13">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I13">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J13">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="N13">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="O13">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="P13">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="Q13">
-        <v>16.45136537766286</v>
+        <v>38.71446236305945</v>
       </c>
       <c r="R13">
-        <v>16.45136537766286</v>
+        <v>348.430161267535</v>
       </c>
       <c r="S13">
-        <v>0.0135004864647923</v>
+        <v>0.0271383648982786</v>
       </c>
       <c r="T13">
-        <v>0.0135004864647923</v>
+        <v>0.0271383648982786</v>
       </c>
     </row>
   </sheetData>
